--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vkoval/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vkoval/jquiz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1BBD1F3-8BF3-A04F-ABAF-B6051F4867FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B22C378-6A20-4F4B-BE04-7C095C9BA35E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16520" xr2:uid="{67B8743A-80E5-7C41-8EDA-CF51D3FD10FB}"/>
+    <workbookView xWindow="760" yWindow="2260" windowWidth="28040" windowHeight="16520" xr2:uid="{67B8743A-80E5-7C41-8EDA-CF51D3FD10FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -400,7 +400,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -546,17 +546,25 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9">
         <f>SUM(B2:B8)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:G9" si="0">SUM(C2:C8)</f>
@@ -564,7 +572,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
@@ -572,11 +580,11 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vkoval/jquiz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B22C378-6A20-4F4B-BE04-7C095C9BA35E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BA7003-B55F-5F41-9898-862CBBCB31D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="2260" windowWidth="28040" windowHeight="16520" xr2:uid="{67B8743A-80E5-7C41-8EDA-CF51D3FD10FB}"/>
+    <workbookView xWindow="200" yWindow="4680" windowWidth="28040" windowHeight="16520" xr2:uid="{67B8743A-80E5-7C41-8EDA-CF51D3FD10FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E820EFD-DE67-4342-AAAD-EA26A0DC84F0}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,19 +480,19 @@
         <v>1</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
         <v>1</v>
@@ -562,29 +562,67 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11">
         <f>SUM(B2:B8)</f>
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:G11" si="0">SUM(C2:C8)</f>
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D2:D10)</f>
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E2:E10)</f>
         <v>6</v>
       </c>
-      <c r="C9">
-        <f t="shared" ref="C9:G9" si="0">SUM(C2:C8)</f>
-        <v>4</v>
-      </c>
-      <c r="D9">
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="G11">
+        <f>SUM(G2:G9)</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
